--- a/biology/Histoire de la zoologie et de la botanique/Hadoram_Shirihai/Hadoram_Shirihai.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hadoram_Shirihai/Hadoram_Shirihai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hadoram Shirihai (né en Israël en 1962) est un ornithologue et écrivain israélien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Shirihai a grandi à Jérusalem. Il se passionne pour les oiseaux dès l'âge de 13 ans et passe beaucoup de temps à se documenter sur le comportement des oiseaux de rivage, la biologie de la reproduction des rapaces et a participé à des sondages sur la migration des oiseaux. Dans les années 1980 et 1990, il vit à Eilat, sur la côte de la mer Rouge, où il fonde le International Birdwatching Center dont il devient le premier directeur.
 </t>
@@ -542,7 +556,9 @@
           <t>Carrière scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Shirihai a découvert plusieurs nouvelles espèces dans le Paléarctique occidental et en Israël. Il a travaillé comme guide lors d'excursions dans le désert du Néguev pour observer des oiseaux, et y montrait aux observateurs des spécimens rares comme la Chouette de Butler ou l'Engoulevent de Nubie. Il a écrit un certain nombre de documents d'identification des oiseaux, pour la plupart publiés en anglais dans des revues telles que British Birds et Birding World. Avec David Christie, il a coécrit le Macmillan Birder's Guide to European and Middle Eastern birds parmi plusieurs autres ouvrages.
 </t>
@@ -573,7 +589,9 @@
           <t>Travaux publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Shirihai, H. (1996) The Birds of Israel. Academic Press, Londres.
 Shirihai, H., Christie, D. A. &amp; Harris, A. (1996) The Macmillan birder’s guide to European and Middle Eastern birds. Macmillan, Londres.
